--- a/m1/u1/ejercicios/20191028/Funciones lógicas/Ofertas Intel.xlsx
+++ b/m1/u1/ejercicios/20191028/Funciones lógicas/Ofertas Intel.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Ofertas INTEL" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -226,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -235,14 +235,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -643,7 +651,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,10 +693,22 @@
       <c r="D3" s="6">
         <v>260</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="7" t="str">
+        <f>IF(C3="INTEL","SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="F3" s="14">
+        <f>D3*C$10</f>
+        <v>59.800000000000004</v>
+      </c>
+      <c r="G3" s="16">
+        <f>IF(E3="SI",C$11,"0%")</f>
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="15">
+        <f>D3-G3+F3</f>
+        <v>319.7</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -700,10 +720,22 @@
       <c r="D4" s="6">
         <v>180</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="7" t="str">
+        <f t="shared" ref="E4:E7" si="0">IF(C4="INTEL","SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F8" si="1">D4*C$10</f>
+        <v>41.4</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" ref="G4:G8" si="2">IF(E4="SI",C$11,"0%")</f>
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4:H8" si="3">D4-G4+F4</f>
+        <v>221.3</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -715,10 +747,22 @@
       <c r="D5" s="6">
         <v>120</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="G5" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>0%</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="3"/>
+        <v>147.6</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -730,10 +774,22 @@
       <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="G6" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>0%</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="3"/>
+        <v>3.69</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -745,45 +801,73 @@
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>0.92</v>
+      </c>
+      <c r="G7" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>0%</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="3"/>
+        <v>4.92</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>320</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="11" t="str">
+        <f>IF(C8="INTEL","SI","NO")</f>
+        <v>SI</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>73.600000000000009</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="3"/>
+        <v>393.5</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>0.23</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H5" evalError="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>